--- a/data_migrasi.xlsx
+++ b/data_migrasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fezaa\My Drive\00. Drive PC\1.STIS\6. Semester 6\Visualisasi Data dan Informasi [T]\UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737E9E71-D51D-427A-8C7F-9E3B349BFF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B52669-B8D2-467E-8649-B318847F2334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="laki" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="tabel7" sheetId="5" r:id="rId5"/>
     <sheet name="tabel12.3" sheetId="6" r:id="rId6"/>
     <sheet name="tabel11.3" sheetId="7" r:id="rId7"/>
+    <sheet name="tabel14" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="316">
   <si>
     <t>Aceh</t>
   </si>
@@ -978,6 +979,18 @@
   </si>
   <si>
     <t>10-14</t>
+  </si>
+  <si>
+    <t>Milik sendiri</t>
+  </si>
+  <si>
+    <t>Kontrak/Sewa</t>
+  </si>
+  <si>
+    <t>Bebas Sewa</t>
+  </si>
+  <si>
+    <t>Dinas dan Lainnya</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1070,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1080,11 +1093,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1119,17 +1181,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1141,6 +1197,36 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1425,7 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -12820,184 +12906,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>248298</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="21">
         <v>173505</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="21">
         <v>74793</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <v>35028</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <v>417</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <v>25610</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="21">
         <v>33425</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="21">
         <v>11124</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="21">
         <v>22310</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="21">
         <v>20076</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>179</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <v>19897</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>13794</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="21">
         <v>1643</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <v>12150</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <v>10711</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="21">
         <v>589</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="21">
         <v>1122</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="21">
         <v>7844</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="21">
         <v>6498</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="21">
         <v>1346</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="21">
         <v>6391</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="21">
         <v>4108</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="21">
         <v>2284</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="21">
         <v>3249</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="21">
         <v>368</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="21">
         <v>2881</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="21">
         <v>2012</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="21">
         <v>1478</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="21">
         <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="21">
         <v>20287</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="21">
         <v>11465</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="21">
         <v>8822</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="21">
         <v>401114</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="21">
         <v>229374</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="21">
         <v>171740</v>
       </c>
     </row>
@@ -13026,820 +13112,820 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="19">
         <v>20030</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <v>18609</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>38639</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>18931</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="19">
         <v>17457</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="19">
         <v>36388</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <v>93064</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <v>89089</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>182153</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <v>101811</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <v>108819</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="19">
         <v>210630</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>93229</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>85620</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>178849</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>47784</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>45397</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="19">
         <v>93181</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <v>65720</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>66109</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>131829</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>78209</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>74774</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <v>152983</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <v>26682</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>26241</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>52923</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>32556</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>28120</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>60675</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="19">
         <v>43569</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>43328</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>86897</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>56639</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>57076</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="19">
         <v>113715</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="19">
         <v>17390</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>17454</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>34844</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>14105</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>14791</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>28897</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="19">
         <v>62088</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>65553</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>127641</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>52113</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>51697</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="19">
         <v>103811</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="19">
         <v>15219</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>15151</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <v>30370</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>10311</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="19">
         <v>8056</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="19">
         <v>18367</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="19">
         <v>44567</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <v>49632</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <v>94199</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>42221</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>40943</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <v>83164</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="19">
         <v>95316</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="19">
         <v>117140</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <v>212457</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>421981</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="19">
         <v>375487</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="19">
         <v>797468</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="19">
         <v>357565</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="19">
         <v>358905</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <v>716469</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>258700</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="19">
         <v>247869</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="19">
         <v>506570</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="19">
         <v>433103</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="19">
         <v>345421</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>778524</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>201997</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>209894</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="19">
         <v>411891</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="19">
         <v>87293</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="19">
         <v>91592</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>178885</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>50895</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="19">
         <v>49753</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="19">
         <v>100649</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="19">
         <v>195125</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="19">
         <v>169229</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>364354</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <v>143492</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="19">
         <v>137461</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="19">
         <v>280954</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="19">
         <v>117810</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="19">
         <v>123177</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>240986</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>120426</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="19">
         <v>112044</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="19">
         <v>232470</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="19">
         <v>23996</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="19">
         <v>25174</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>49171</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="19">
         <v>43190</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="19">
         <v>30876</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="19">
         <v>74066</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="19">
         <v>116723</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <v>45926</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="19">
         <v>162649</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="19">
         <v>16141</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="19">
         <v>14793</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="19">
         <v>30934</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="19">
         <v>59627</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="19">
         <v>49750</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>109377</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="19">
         <v>30066</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="19">
         <v>27101</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="19">
         <v>57167</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="19">
         <v>36656</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="19">
         <v>21985</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <v>58641</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <v>24650</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="19">
         <v>19040</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="19">
         <v>43690</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="19">
         <v>39034</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="19">
         <v>32005</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="19">
         <v>71039</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
         <v>43723</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="19">
         <v>31161</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="19">
         <v>74884</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="19">
         <v>30992</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="19">
         <v>28688</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="19">
         <v>59680</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="19">
         <v>29501</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="19">
         <v>24364</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="19">
         <v>53866</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="19">
         <v>53095</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="19">
         <v>50685</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="19">
         <v>103780</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <v>73258</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="19">
         <v>53826</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="19">
         <v>127084</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="19">
         <v>13341</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="19">
         <v>12803</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="19">
         <v>26144</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <v>14580</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="19">
         <v>11496</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="19">
         <v>26076</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="19">
         <v>15560</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="19">
         <v>15770</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="19">
         <v>31330</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <v>16024</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="19">
         <v>15552</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="19">
         <v>31576</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="19">
         <v>23883</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="19">
         <v>21794</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="19">
         <v>45678</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <v>21594</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="19">
         <v>22488</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="19">
         <v>44083</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="19">
         <v>80569</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="19">
         <v>74732</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="19">
         <v>155301</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
         <v>78249</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="19">
         <v>75422</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="19">
         <v>153670</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="19">
         <v>41014</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="19">
         <v>33726</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="19">
         <v>74740</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <v>18321</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="19">
         <v>17602</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="19">
         <v>35923</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="19">
         <v>9838</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="19">
         <v>10516</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="19">
         <v>20354</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="19">
         <v>6072</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="19">
         <v>6783</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="19">
         <v>12855</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="19">
         <v>17897</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="19">
         <v>16567</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="19">
         <v>34464</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="19">
         <v>11545</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="19">
         <v>12538</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="19">
         <v>24083</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="19">
         <v>13692</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="19">
         <v>13317</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="19">
         <v>27010</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
         <v>15469</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="19">
         <v>14282</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="19">
         <v>29751</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="19">
         <v>7700</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="19">
         <v>7436</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="19">
         <v>15136</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="19">
         <v>7905</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="19">
         <v>7380</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="19">
         <v>15284</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="19">
         <v>18002</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="19">
         <v>17311</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="19">
         <v>35314</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="19">
         <v>17995</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="19">
         <v>13659</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="19">
         <v>31654</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="19">
         <v>21156</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="19">
         <v>17982</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="19">
         <v>39138</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="19">
         <v>40714</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="19">
         <v>28680</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="19">
         <v>69394</v>
       </c>
     </row>
@@ -13877,1017 +13963,1017 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>1122</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>4370</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>4591</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>6037</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>15345</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="17">
         <v>1305</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <v>4758</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="17">
         <v>1110</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>6679</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>24844</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>20045</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>24377</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>80094</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <v>6665</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <v>17975</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <v>1474</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>6799</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>24922</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>25640</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>28296</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>68172</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <v>5640</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <v>17737</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <v>1643</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>5633</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>18185</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>22122</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>23414</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>46764</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>3109</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>11609</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <v>992</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>1836</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>6483</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>9361</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>10433</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>17262</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <v>1481</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>5300</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>767</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>3029</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>11413</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>14825</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>14169</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>31022</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>2842</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>8910</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>1315</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>4212</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>5201</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>5654</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>11932</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>1512</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>4522</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>4896</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>15492</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>23556</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>28101</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>43990</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>2886</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>7587</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <v>1133</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>1106</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>3761</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>5592</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>4936</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>8277</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>1178</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>5023</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>2660</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>6957</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>7760</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>10834</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>48903</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>4346</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <v>11792</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>947</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>546</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>19435</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>22034</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>31162</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>82133</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>11203</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>35149</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>2794</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>24684</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>71396</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>83637</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>93213</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>293573</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>45194</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <v>97194</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>7579</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>21743</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>88998</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>174528</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>176219</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <v>247924</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="17">
         <v>15820</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <v>47441</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="17">
         <v>5852</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>4810</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>12588</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>12806</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>17289</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <v>92580</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>6883</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <v>27491</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <v>4438</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>10145</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>39381</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>66321</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>81436</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <v>127556</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <v>7466</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <v>29228</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>2822</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>7910</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>24474</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>24332</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>33063</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <v>94126</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <v>12444</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <v>41239</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="17">
         <v>3399</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>2142</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>3171</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>6074</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>7473</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <v>21813</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <v>2281</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <v>5437</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="17">
         <v>780</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>4809</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>16315</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>41536</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>32960</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="17">
         <v>47509</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <v>3250</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <v>14364</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="17">
         <v>1905</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>4506</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>14491</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>24565</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>12582</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <v>28653</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <v>3112</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <v>20092</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <v>1376</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>1395</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <v>7597</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <v>17885</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>10886</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <v>14325</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <v>1359</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="17">
         <v>4241</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="17">
         <v>954</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>2581</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>8120</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="17">
         <v>18174</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <v>14405</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="17">
         <v>18963</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="17">
         <v>1701</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="17">
         <v>6401</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="17">
         <v>694</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>2594</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <v>8318</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="17">
         <v>11954</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="17">
         <v>9566</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="17">
         <v>18411</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="17">
         <v>1638</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="17">
         <v>6510</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="17">
         <v>689</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>4476</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>11695</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="17">
         <v>19424</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="17">
         <v>15601</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="17">
         <v>35063</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="17">
         <v>3825</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="17">
         <v>12309</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="17">
         <v>1386</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>1430</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>3024</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <v>5566</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <v>4091</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="17">
         <v>6933</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="17">
         <v>865</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="17">
         <v>3948</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="17">
         <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>798</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <v>3624</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <v>3658</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <v>4008</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="17">
         <v>13691</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="17">
         <v>1120</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="17">
         <v>3948</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="17">
         <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <v>1777</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="17">
         <v>5719</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <v>8469</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="17">
         <v>6657</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="17">
         <v>15620</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="17">
         <v>1179</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="17">
         <v>5596</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="17">
         <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <v>7744</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <v>24861</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <v>35495</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="17">
         <v>22761</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="17">
         <v>45705</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="17">
         <v>3771</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="17">
         <v>13521</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="17">
         <v>1444</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <v>3738</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="17">
         <v>11022</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <v>14172</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="17">
         <v>10661</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="17">
         <v>23501</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="17">
         <v>2147</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="17">
         <v>8445</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="17">
         <v>1054</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <v>684</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="17">
         <v>2946</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="17">
         <v>4038</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="17">
         <v>2717</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="17">
         <v>7301</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="17">
         <v>394</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="17">
         <v>1975</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="17">
         <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <v>1679</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="17">
         <v>5599</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="17">
         <v>7631</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="17">
         <v>4932</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="17">
         <v>8581</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="17">
         <v>1048</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="17">
         <v>4632</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="17">
         <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="17">
         <v>731</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <v>2636</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="17">
         <v>3124</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="17">
         <v>3035</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="17">
         <v>10545</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="17">
         <v>1020</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="17">
         <v>5242</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="17">
         <v>675</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="17">
         <v>493</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <v>1689</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="17">
         <v>2041</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="17">
         <v>1963</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="17">
         <v>5346</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="17">
         <v>811</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="17">
         <v>2464</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="17">
         <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="17">
         <v>1193</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>3197</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="17">
         <v>4281</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="17">
         <v>5076</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="17">
         <v>13817</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="17">
         <v>1644</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="17">
         <v>5786</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="17">
         <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <v>1785</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="17">
         <v>3705</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="17">
         <v>4933</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="17">
         <v>5978</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="17">
         <v>15705</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="17">
         <v>1575</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="17">
         <v>5086</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="17">
         <v>371</v>
       </c>
     </row>
@@ -14915,266 +15001,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>243822</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>1108</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>22</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>231910</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>15614</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>132</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>390711</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>208505</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>1924</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>238167</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>594075</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>6194</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>936</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>77518</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>614594</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>11075</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>1626</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>30053</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>463968</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>11205</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>1649</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>14001</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>336422</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>9072</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>2953</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>7487</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>235213</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>7761</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>3572</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>5032</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>151295</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>5212</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>4494</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>2697</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>87679</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>5896</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>15219</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>1592</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>48366</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>2510</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>15803</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>623</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>25082</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>1158</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>14237</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>382</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>12281</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>437</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>8963</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>241</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>7359</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>315</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>10918</v>
       </c>
     </row>
@@ -15185,4 +15271,619 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7787BA40-362A-4BC1-B974-1A9A266347FA}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="28"/>
+      <c r="B1" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24">
+        <v>18455</v>
+      </c>
+      <c r="C2" s="24">
+        <v>11135</v>
+      </c>
+      <c r="D2" s="24">
+        <v>8420</v>
+      </c>
+      <c r="E2" s="25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24">
+        <v>96573</v>
+      </c>
+      <c r="C3" s="24">
+        <v>38417</v>
+      </c>
+      <c r="D3" s="24">
+        <v>44414</v>
+      </c>
+      <c r="E3" s="25">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24">
+        <v>95332</v>
+      </c>
+      <c r="C4" s="24">
+        <v>27559</v>
+      </c>
+      <c r="D4" s="24">
+        <v>54057</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24">
+        <v>60516</v>
+      </c>
+      <c r="C5" s="24">
+        <v>39750</v>
+      </c>
+      <c r="D5" s="24">
+        <v>27583</v>
+      </c>
+      <c r="E5" s="25">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24">
+        <v>30426</v>
+      </c>
+      <c r="C6" s="24">
+        <v>12310</v>
+      </c>
+      <c r="D6" s="24">
+        <v>9509</v>
+      </c>
+      <c r="E6" s="25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24">
+        <v>56454</v>
+      </c>
+      <c r="C7" s="24">
+        <v>10831</v>
+      </c>
+      <c r="D7" s="24">
+        <v>18871</v>
+      </c>
+      <c r="E7" s="25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24">
+        <v>22507</v>
+      </c>
+      <c r="C8" s="24">
+        <v>6120</v>
+      </c>
+      <c r="D8" s="24">
+        <v>6035</v>
+      </c>
+      <c r="E8" s="25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24">
+        <v>101091</v>
+      </c>
+      <c r="C9" s="24">
+        <v>9940</v>
+      </c>
+      <c r="D9" s="24">
+        <v>16393</v>
+      </c>
+      <c r="E9" s="25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="24">
+        <v>16594</v>
+      </c>
+      <c r="C10" s="24">
+        <v>7389</v>
+      </c>
+      <c r="D10" s="24">
+        <v>5775</v>
+      </c>
+      <c r="E10" s="25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="24">
+        <v>35141</v>
+      </c>
+      <c r="C11" s="24">
+        <v>51975</v>
+      </c>
+      <c r="D11" s="24">
+        <v>5733</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="24">
+        <v>64918</v>
+      </c>
+      <c r="C12" s="24">
+        <v>109245</v>
+      </c>
+      <c r="D12" s="24">
+        <v>31831</v>
+      </c>
+      <c r="E12" s="25">
+        <v>6462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="24">
+        <v>474481</v>
+      </c>
+      <c r="C13" s="24">
+        <v>169241</v>
+      </c>
+      <c r="D13" s="24">
+        <v>59882</v>
+      </c>
+      <c r="E13" s="25">
+        <v>12865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="24">
+        <v>636890</v>
+      </c>
+      <c r="C14" s="24">
+        <v>45805</v>
+      </c>
+      <c r="D14" s="24">
+        <v>88615</v>
+      </c>
+      <c r="E14" s="25">
+        <v>7214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="24">
+        <v>84033</v>
+      </c>
+      <c r="C15" s="24">
+        <v>71790</v>
+      </c>
+      <c r="D15" s="24">
+        <v>21074</v>
+      </c>
+      <c r="E15" s="25">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="24">
+        <v>286968</v>
+      </c>
+      <c r="C16" s="24">
+        <v>38233</v>
+      </c>
+      <c r="D16" s="24">
+        <v>34727</v>
+      </c>
+      <c r="E16" s="25">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="24">
+        <v>161763</v>
+      </c>
+      <c r="C17" s="24">
+        <v>62033</v>
+      </c>
+      <c r="D17" s="24">
+        <v>14858</v>
+      </c>
+      <c r="E17" s="25">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="24">
+        <v>16468</v>
+      </c>
+      <c r="C18" s="24">
+        <v>29523</v>
+      </c>
+      <c r="D18" s="24">
+        <v>3128</v>
+      </c>
+      <c r="E18" s="25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="24">
+        <v>141228</v>
+      </c>
+      <c r="C19" s="24">
+        <v>6368</v>
+      </c>
+      <c r="D19" s="24">
+        <v>14588</v>
+      </c>
+      <c r="E19" s="25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="24">
+        <v>92581</v>
+      </c>
+      <c r="C20" s="24">
+        <v>7020</v>
+      </c>
+      <c r="D20" s="24">
+        <v>9214</v>
+      </c>
+      <c r="E20" s="25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="24">
+        <v>39537</v>
+      </c>
+      <c r="C21" s="24">
+        <v>5242</v>
+      </c>
+      <c r="D21" s="24">
+        <v>11657</v>
+      </c>
+      <c r="E21" s="25">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="24">
+        <v>20496</v>
+      </c>
+      <c r="C22" s="24">
+        <v>9195</v>
+      </c>
+      <c r="D22" s="24">
+        <v>25553</v>
+      </c>
+      <c r="E22" s="25">
+        <v>15796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="24">
+        <v>28932</v>
+      </c>
+      <c r="C23" s="24">
+        <v>14605</v>
+      </c>
+      <c r="D23" s="24">
+        <v>13304</v>
+      </c>
+      <c r="E23" s="25">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="24">
+        <v>37254</v>
+      </c>
+      <c r="C24" s="24">
+        <v>36900</v>
+      </c>
+      <c r="D24" s="24">
+        <v>24848</v>
+      </c>
+      <c r="E24" s="25">
+        <v>4777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="24">
+        <v>12092</v>
+      </c>
+      <c r="C25" s="24">
+        <v>8171</v>
+      </c>
+      <c r="D25" s="24">
+        <v>5154</v>
+      </c>
+      <c r="E25" s="25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="24">
+        <v>18103</v>
+      </c>
+      <c r="C26" s="24">
+        <v>5384</v>
+      </c>
+      <c r="D26" s="24">
+        <v>7255</v>
+      </c>
+      <c r="E26" s="25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="24">
+        <v>26983</v>
+      </c>
+      <c r="C27" s="24">
+        <v>10526</v>
+      </c>
+      <c r="D27" s="24">
+        <v>7323</v>
+      </c>
+      <c r="E27" s="25">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="24">
+        <v>114245</v>
+      </c>
+      <c r="C28" s="24">
+        <v>16923</v>
+      </c>
+      <c r="D28" s="24">
+        <v>22881</v>
+      </c>
+      <c r="E28" s="25">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="24">
+        <v>54658</v>
+      </c>
+      <c r="C29" s="24">
+        <v>8240</v>
+      </c>
+      <c r="D29" s="24">
+        <v>11432</v>
+      </c>
+      <c r="E29" s="25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="24">
+        <v>11075</v>
+      </c>
+      <c r="C30" s="24">
+        <v>2955</v>
+      </c>
+      <c r="D30" s="24">
+        <v>6309</v>
+      </c>
+      <c r="E30" s="25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="24">
+        <v>25112</v>
+      </c>
+      <c r="C31" s="24">
+        <v>2625</v>
+      </c>
+      <c r="D31" s="24">
+        <v>6099</v>
+      </c>
+      <c r="E31" s="25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="24">
+        <v>16375</v>
+      </c>
+      <c r="C32" s="24">
+        <v>5347</v>
+      </c>
+      <c r="D32" s="24">
+        <v>4761</v>
+      </c>
+      <c r="E32" s="25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="24">
+        <v>8740</v>
+      </c>
+      <c r="C33" s="24">
+        <v>3491</v>
+      </c>
+      <c r="D33" s="24">
+        <v>2643</v>
+      </c>
+      <c r="E33" s="25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="24">
+        <v>15716</v>
+      </c>
+      <c r="C34" s="24">
+        <v>11145</v>
+      </c>
+      <c r="D34" s="24">
+        <v>6915</v>
+      </c>
+      <c r="E34" s="25">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="26">
+        <v>12137</v>
+      </c>
+      <c r="C35" s="26">
+        <v>18739</v>
+      </c>
+      <c r="D35" s="26">
+        <v>944</v>
+      </c>
+      <c r="E35" s="27">
+        <v>1318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_migrasi.xlsx
+++ b/data_migrasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fezaa\My Drive\00. Drive PC\1.STIS\6. Semester 6\Visualisasi Data dan Informasi [T]\UAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B52669-B8D2-467E-8649-B318847F2334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B843FA0D-9FB4-4DA6-A1AD-6F29ECADFB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="laki" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="total" sheetId="3" r:id="rId3"/>
     <sheet name="tabel6" sheetId="4" r:id="rId4"/>
     <sheet name="tabel7" sheetId="5" r:id="rId5"/>
-    <sheet name="tabel12.3" sheetId="6" r:id="rId6"/>
-    <sheet name="tabel11.3" sheetId="7" r:id="rId7"/>
+    <sheet name="tabel11.3" sheetId="7" r:id="rId6"/>
+    <sheet name="tabel12.3" sheetId="6" r:id="rId7"/>
     <sheet name="tabel14" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1199,12 +1199,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1228,6 +1222,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9098,8 +9098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6F87BF-3FF3-49D8-8B51-2C34A5B63BCD}">
   <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13096,7 +13096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF9C223-2321-43DA-9F51-CB11EB529CAE}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -13112,22 +13112,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="18" t="s">
         <v>277</v>
       </c>
@@ -13941,6 +13941,297 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D6ACD1-B470-4D1B-BC34-F2C61A7FB7A1}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="17">
+        <v>243822</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1108</v>
+      </c>
+      <c r="D3" s="17">
+        <v>22</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="17">
+        <v>231910</v>
+      </c>
+      <c r="C4" s="17">
+        <v>15614</v>
+      </c>
+      <c r="D4" s="17">
+        <v>132</v>
+      </c>
+      <c r="E4" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="17">
+        <v>390711</v>
+      </c>
+      <c r="C5" s="17">
+        <v>208505</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1924</v>
+      </c>
+      <c r="E5" s="17">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="17">
+        <v>238167</v>
+      </c>
+      <c r="C6" s="17">
+        <v>594075</v>
+      </c>
+      <c r="D6" s="17">
+        <v>6194</v>
+      </c>
+      <c r="E6" s="17">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="17">
+        <v>77518</v>
+      </c>
+      <c r="C7" s="17">
+        <v>614594</v>
+      </c>
+      <c r="D7" s="17">
+        <v>11075</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="17">
+        <v>30053</v>
+      </c>
+      <c r="C8" s="17">
+        <v>463968</v>
+      </c>
+      <c r="D8" s="17">
+        <v>11205</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="17">
+        <v>14001</v>
+      </c>
+      <c r="C9" s="17">
+        <v>336422</v>
+      </c>
+      <c r="D9" s="17">
+        <v>9072</v>
+      </c>
+      <c r="E9" s="17">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="17">
+        <v>7487</v>
+      </c>
+      <c r="C10" s="17">
+        <v>235213</v>
+      </c>
+      <c r="D10" s="17">
+        <v>7761</v>
+      </c>
+      <c r="E10" s="17">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="17">
+        <v>5032</v>
+      </c>
+      <c r="C11" s="17">
+        <v>151295</v>
+      </c>
+      <c r="D11" s="17">
+        <v>5212</v>
+      </c>
+      <c r="E11" s="17">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2697</v>
+      </c>
+      <c r="C12" s="17">
+        <v>87679</v>
+      </c>
+      <c r="D12" s="17">
+        <v>5896</v>
+      </c>
+      <c r="E12" s="17">
+        <v>15219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1592</v>
+      </c>
+      <c r="C13" s="17">
+        <v>48366</v>
+      </c>
+      <c r="D13" s="17">
+        <v>2510</v>
+      </c>
+      <c r="E13" s="17">
+        <v>15803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="17">
+        <v>623</v>
+      </c>
+      <c r="C14" s="17">
+        <v>25082</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1158</v>
+      </c>
+      <c r="E14" s="17">
+        <v>14237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="17">
+        <v>382</v>
+      </c>
+      <c r="C15" s="17">
+        <v>12281</v>
+      </c>
+      <c r="D15" s="17">
+        <v>437</v>
+      </c>
+      <c r="E15" s="17">
+        <v>8963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" s="17">
+        <v>241</v>
+      </c>
+      <c r="C16" s="17">
+        <v>7359</v>
+      </c>
+      <c r="D16" s="17">
+        <v>315</v>
+      </c>
+      <c r="E16" s="17">
+        <v>10918</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3ACA08-FC6A-4D01-AE79-208EFA421D08}">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -14982,302 +15273,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D6ACD1-B470-4D1B-BC34-F2C61A7FB7A1}">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="B3" s="17">
-        <v>243822</v>
-      </c>
-      <c r="C3" s="17">
-        <v>1108</v>
-      </c>
-      <c r="D3" s="17">
-        <v>22</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="17">
-        <v>231910</v>
-      </c>
-      <c r="C4" s="17">
-        <v>15614</v>
-      </c>
-      <c r="D4" s="17">
-        <v>132</v>
-      </c>
-      <c r="E4" s="17">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="17">
-        <v>390711</v>
-      </c>
-      <c r="C5" s="17">
-        <v>208505</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1924</v>
-      </c>
-      <c r="E5" s="17">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6" s="17">
-        <v>238167</v>
-      </c>
-      <c r="C6" s="17">
-        <v>594075</v>
-      </c>
-      <c r="D6" s="17">
-        <v>6194</v>
-      </c>
-      <c r="E6" s="17">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" s="17">
-        <v>77518</v>
-      </c>
-      <c r="C7" s="17">
-        <v>614594</v>
-      </c>
-      <c r="D7" s="17">
-        <v>11075</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="17">
-        <v>30053</v>
-      </c>
-      <c r="C8" s="17">
-        <v>463968</v>
-      </c>
-      <c r="D8" s="17">
-        <v>11205</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" s="17">
-        <v>14001</v>
-      </c>
-      <c r="C9" s="17">
-        <v>336422</v>
-      </c>
-      <c r="D9" s="17">
-        <v>9072</v>
-      </c>
-      <c r="E9" s="17">
-        <v>2953</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" s="17">
-        <v>7487</v>
-      </c>
-      <c r="C10" s="17">
-        <v>235213</v>
-      </c>
-      <c r="D10" s="17">
-        <v>7761</v>
-      </c>
-      <c r="E10" s="17">
-        <v>3572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" s="17">
-        <v>5032</v>
-      </c>
-      <c r="C11" s="17">
-        <v>151295</v>
-      </c>
-      <c r="D11" s="17">
-        <v>5212</v>
-      </c>
-      <c r="E11" s="17">
-        <v>4494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="B12" s="17">
-        <v>2697</v>
-      </c>
-      <c r="C12" s="17">
-        <v>87679</v>
-      </c>
-      <c r="D12" s="17">
-        <v>5896</v>
-      </c>
-      <c r="E12" s="17">
-        <v>15219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" s="17">
-        <v>1592</v>
-      </c>
-      <c r="C13" s="17">
-        <v>48366</v>
-      </c>
-      <c r="D13" s="17">
-        <v>2510</v>
-      </c>
-      <c r="E13" s="17">
-        <v>15803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="17">
-        <v>623</v>
-      </c>
-      <c r="C14" s="17">
-        <v>25082</v>
-      </c>
-      <c r="D14" s="17">
-        <v>1158</v>
-      </c>
-      <c r="E14" s="17">
-        <v>14237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="17">
-        <v>382</v>
-      </c>
-      <c r="C15" s="17">
-        <v>12281</v>
-      </c>
-      <c r="D15" s="17">
-        <v>437</v>
-      </c>
-      <c r="E15" s="17">
-        <v>8963</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="B16" s="17">
-        <v>241</v>
-      </c>
-      <c r="C16" s="17">
-        <v>7359</v>
-      </c>
-      <c r="D16" s="17">
-        <v>315</v>
-      </c>
-      <c r="E16" s="17">
-        <v>10918</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7787BA40-362A-4BC1-B974-1A9A266347FA}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -15291,595 +15291,595 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="22">
         <v>18455</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="22">
         <v>11135</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="22">
         <v>8420</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="23">
         <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="22">
         <v>96573</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="22">
         <v>38417</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="22">
         <v>44414</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="23">
         <v>2749</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <v>95332</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>27559</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <v>54057</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="23">
         <v>1902</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <v>60516</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <v>39750</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="22">
         <v>27583</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="23">
         <v>3980</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>30426</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>12310</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <v>9509</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>56454</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>10831</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <v>18871</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <v>22507</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <v>6120</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="22">
         <v>6035</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="23">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>101091</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>9940</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="22">
         <v>16393</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="23">
         <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <v>16594</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>7389</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <v>5775</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="23">
         <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <v>35141</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>51975</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <v>5733</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="23">
         <v>1349</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <v>64918</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="22">
         <v>109245</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="22">
         <v>31831</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="23">
         <v>6462</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="22">
         <v>474481</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="22">
         <v>169241</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="22">
         <v>59882</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="23">
         <v>12865</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>636890</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>45805</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="22">
         <v>88615</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="23">
         <v>7214</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="22">
         <v>84033</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="22">
         <v>71790</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="22">
         <v>21074</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="23">
         <v>1987</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="22">
         <v>286968</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <v>38233</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="22">
         <v>34727</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <v>4426</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="22">
         <v>161763</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>62033</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="22">
         <v>14858</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="23">
         <v>2334</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <v>16468</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <v>29523</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="22">
         <v>3128</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="23">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="22">
         <v>141228</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <v>6368</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="22">
         <v>14588</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="23">
         <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="22">
         <v>92581</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="22">
         <v>7020</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="22">
         <v>9214</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="23">
         <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="22">
         <v>39537</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="22">
         <v>5242</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="22">
         <v>11657</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="23">
         <v>2206</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="22">
         <v>20496</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <v>9195</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="22">
         <v>25553</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="23">
         <v>15796</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="22">
         <v>28932</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="22">
         <v>14605</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="22">
         <v>13304</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="23">
         <v>2840</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="22">
         <v>37254</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="22">
         <v>36900</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="22">
         <v>24848</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="23">
         <v>4777</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="22">
         <v>12092</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <v>8171</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="22">
         <v>5154</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="23">
         <v>728</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="22">
         <v>18103</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="22">
         <v>5384</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="22">
         <v>7255</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="23">
         <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="22">
         <v>26983</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="22">
         <v>10526</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="22">
         <v>7323</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="23">
         <v>845</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="22">
         <v>114245</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="22">
         <v>16923</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="22">
         <v>22881</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="23">
         <v>1253</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="22">
         <v>54658</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="22">
         <v>8240</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="22">
         <v>11432</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="23">
         <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="22">
         <v>11075</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="22">
         <v>2955</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="22">
         <v>6309</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="23">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="22">
         <v>25112</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="22">
         <v>2625</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="22">
         <v>6099</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="23">
         <v>627</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="22">
         <v>16375</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="22">
         <v>5347</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="22">
         <v>4761</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="23">
         <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="22">
         <v>8740</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="22">
         <v>3491</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="22">
         <v>2643</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="23">
         <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="22">
         <v>15716</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="22">
         <v>11145</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="22">
         <v>6915</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="23">
         <v>1538</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="24">
         <v>12137</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="24">
         <v>18739</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="24">
         <v>944</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="25">
         <v>1318</v>
       </c>
     </row>
